--- a/biology/Zoologie/Agreste_serbe/Agreste_serbe.xlsx
+++ b/biology/Zoologie/Agreste_serbe/Agreste_serbe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hipparchia delattini
 Le Agreste serbe (Hipparchia delattini) est une espèce de lépidoptères (papillons) de la famille des Nymphalidae, de la sous-famille des Satyrinae et du genre Hipparchia.
@@ -512,10 +524,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a été nommé Hipparchia delattini par Otakar Kudrna en 1975[1].
-L'épithète spécifique delattini est considérée par certains taxonomistes comme invalide[2] et fait place à volgensis.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été nommé Hipparchia delattini par Otakar Kudrna en 1975.
+L'épithète spécifique delattini est considérée par certains taxonomistes comme invalide et fait place à volgensis.
 </t>
         </is>
       </c>
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -567,12 +583,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Période de vol et hivernation</t>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent au Kosovo, en Bosnie-Herzégovine et dans le nord-ouest de la Grèce.
+</t>
         </is>
       </c>
     </row>
@@ -602,10 +621,14 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Il est présent au Kosovo, en Bosnie-Herzégovine et dans le nord-ouest de la Grèce[1].
-Biotope
-Il réside dans les zones arides.
-Protection</t>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans les zones arides.
+</t>
         </is>
       </c>
     </row>
